--- a/StatisticsTests/ExcelTesting/ExcelData/Triangular.xlsx
+++ b/StatisticsTests/ExcelTesting/ExcelData/Triangular.xlsx
@@ -1590,7 +1590,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H7" s="29">
-        <x:v>43917.37986111111</x:v>
+        <x:v>43924.44027777778</x:v>
       </x:c>
       <x:c r="I7" s="6" t="s">
         <x:v>15</x:v>
@@ -1646,7 +1646,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H11" s="29">
-        <x:v>43917.37986111111</x:v>
+        <x:v>43924.44027777778</x:v>
       </x:c>
       <x:c r="I11" s="6" t="s">
         <x:v>15</x:v>
@@ -1702,7 +1702,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H15" s="29">
-        <x:v>43917.37986111111</x:v>
+        <x:v>43924.44097222222</x:v>
       </x:c>
       <x:c r="I15" s="6" t="s">
         <x:v>15</x:v>
@@ -1758,7 +1758,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H19" s="29">
-        <x:v>43917.37986111111</x:v>
+        <x:v>43924.44027777778</x:v>
       </x:c>
       <x:c r="I19" s="6" t="s">
         <x:v>15</x:v>

--- a/StatisticsTests/ExcelTesting/ExcelData/Triangular.xlsx
+++ b/StatisticsTests/ExcelTesting/ExcelData/Triangular.xlsx
@@ -1702,7 +1702,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H7" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I7" s="4" t="s">
         <x:v>15</x:v>
@@ -1756,7 +1756,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H11" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I11" s="4" t="s">
         <x:v>15</x:v>
@@ -1810,7 +1810,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H15" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I15" s="4" t="s">
         <x:v>15</x:v>
@@ -1864,7 +1864,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H19" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I19" s="4" t="s">
         <x:v>15</x:v>
@@ -2009,7 +2009,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H8" s="16">
-        <x:v>44076.58888888889</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I8" s="4" t="s">
         <x:v>15</x:v>
@@ -2068,7 +2068,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H12" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I12" s="4" t="s">
         <x:v>15</x:v>
@@ -2128,7 +2128,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H16" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I16" s="4" t="s">
         <x:v>15</x:v>
@@ -2188,7 +2188,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H20" s="16">
-        <x:v>44076.58888888889</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I20" s="4" t="s">
         <x:v>15</x:v>
@@ -2248,7 +2248,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H24" s="16">
-        <x:v>44076.58888888889</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I24" s="4" t="s">
         <x:v>15</x:v>
@@ -2308,7 +2308,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H28" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I28" s="4" t="s">
         <x:v>15</x:v>
@@ -2368,7 +2368,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H32" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I32" s="4" t="s">
         <x:v>15</x:v>
@@ -2432,7 +2432,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H37" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I37" s="4" t="s">
         <x:v>15</x:v>
@@ -2492,7 +2492,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H41" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I41" s="4" t="s">
         <x:v>15</x:v>
@@ -2552,7 +2552,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H45" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I45" s="4" t="s">
         <x:v>15</x:v>
@@ -2612,7 +2612,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H49" s="16">
-        <x:v>44076.58888888889</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I49" s="4" t="s">
         <x:v>15</x:v>
@@ -2672,7 +2672,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H53" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I53" s="4" t="s">
         <x:v>15</x:v>
@@ -2732,7 +2732,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H57" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I57" s="4" t="s">
         <x:v>15</x:v>
@@ -2792,7 +2792,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H61" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I61" s="4" t="s">
         <x:v>15</x:v>
@@ -2856,7 +2856,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H66" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I66" s="4" t="s">
         <x:v>15</x:v>
@@ -2916,7 +2916,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H70" s="16">
-        <x:v>44076.58888888889</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I70" s="4" t="s">
         <x:v>15</x:v>
@@ -2976,7 +2976,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H74" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I74" s="4" t="s">
         <x:v>15</x:v>
@@ -3036,7 +3036,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H78" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I78" s="4" t="s">
         <x:v>15</x:v>
@@ -3096,7 +3096,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H82" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I82" s="4" t="s">
         <x:v>15</x:v>
@@ -3156,7 +3156,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H86" s="16">
-        <x:v>44076.58888888889</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I86" s="4" t="s">
         <x:v>15</x:v>
@@ -3216,7 +3216,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H90" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I90" s="4" t="s">
         <x:v>15</x:v>
@@ -3280,7 +3280,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H95" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I95" s="4" t="s">
         <x:v>15</x:v>
@@ -3339,7 +3339,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H99" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I99" s="4" t="s">
         <x:v>15</x:v>
@@ -3398,7 +3398,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H103" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I103" s="4" t="s">
         <x:v>15</x:v>
@@ -3464,7 +3464,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H107" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I107" s="4" t="s">
         <x:v>15</x:v>
@@ -3523,7 +3523,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H111" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I111" s="4" t="s">
         <x:v>15</x:v>
@@ -3582,7 +3582,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H115" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I115" s="4" t="s">
         <x:v>15</x:v>
@@ -3641,7 +3641,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H119" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I119" s="4" t="s">
         <x:v>15</x:v>
@@ -3783,7 +3783,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H8" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I8" s="4" t="s">
         <x:v>15</x:v>
@@ -3842,7 +3842,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H12" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I12" s="4" t="s">
         <x:v>15</x:v>
@@ -3902,7 +3902,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H16" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I16" s="4" t="s">
         <x:v>15</x:v>
@@ -3962,7 +3962,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H20" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I20" s="4" t="s">
         <x:v>15</x:v>
@@ -4022,7 +4022,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H24" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I24" s="4" t="s">
         <x:v>15</x:v>
@@ -4082,7 +4082,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H28" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I28" s="4" t="s">
         <x:v>15</x:v>
@@ -4142,7 +4142,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H32" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I32" s="4" t="s">
         <x:v>15</x:v>
@@ -4206,7 +4206,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H37" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I37" s="4" t="s">
         <x:v>15</x:v>
@@ -4265,7 +4265,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H41" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I41" s="4" t="s">
         <x:v>15</x:v>
@@ -4324,7 +4324,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H45" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I45" s="4" t="s">
         <x:v>15</x:v>
@@ -4383,7 +4383,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H49" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I49" s="4" t="s">
         <x:v>15</x:v>
@@ -4442,7 +4442,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H53" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I53" s="4" t="s">
         <x:v>15</x:v>
@@ -4501,7 +4501,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H57" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I57" s="4" t="s">
         <x:v>15</x:v>
@@ -4560,7 +4560,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H61" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I61" s="4" t="s">
         <x:v>15</x:v>
@@ -4623,7 +4623,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H66" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I66" s="4" t="s">
         <x:v>15</x:v>
@@ -4682,7 +4682,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H70" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I70" s="4" t="s">
         <x:v>15</x:v>
@@ -4741,7 +4741,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H74" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I74" s="4" t="s">
         <x:v>15</x:v>
@@ -4800,7 +4800,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H78" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I78" s="4" t="s">
         <x:v>15</x:v>
@@ -4859,7 +4859,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H82" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I82" s="4" t="s">
         <x:v>15</x:v>
@@ -4918,7 +4918,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H86" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I86" s="4" t="s">
         <x:v>15</x:v>
@@ -4977,7 +4977,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H90" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I90" s="4" t="s">
         <x:v>15</x:v>
@@ -5045,7 +5045,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H95" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I95" s="4" t="s">
         <x:v>15</x:v>
@@ -5104,7 +5104,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H99" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I99" s="4" t="s">
         <x:v>15</x:v>
@@ -5163,7 +5163,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H103" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I103" s="4" t="s">
         <x:v>15</x:v>
@@ -5222,7 +5222,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H107" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I107" s="4" t="s">
         <x:v>15</x:v>
@@ -5283,7 +5283,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H111" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I111" s="4" t="s">
         <x:v>15</x:v>
@@ -5341,7 +5341,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H115" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I115" s="4" t="s">
         <x:v>15</x:v>
@@ -5399,7 +5399,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H119" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I119" s="4" t="s">
         <x:v>15</x:v>
@@ -5543,7 +5543,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H8" s="28">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I8" s="16">
         <x:v>43948.28680555556</x:v>
@@ -5620,7 +5620,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H12" s="29">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I12" s="16">
         <x:v>43948.28680555556</x:v>
@@ -5691,7 +5691,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H16" s="29">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I16" s="16">
         <x:v>43948.28958333333</x:v>
@@ -5773,7 +5773,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H20" s="29">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I20" s="16">
         <x:v>43948.28680555556</x:v>
@@ -5838,7 +5838,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H24" s="29">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I24" s="16">
         <x:v>43948.28680555556</x:v>
@@ -5903,7 +5903,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H28" s="29">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I28" s="16">
         <x:v>43948.28680555556</x:v>
@@ -5968,7 +5968,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H32" s="29">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I32" s="16">
         <x:v>43948.28680555556</x:v>
@@ -6033,7 +6033,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H36" s="29">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I36" s="16">
         <x:v>43948.28680555556</x:v>
@@ -6098,7 +6098,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H40" s="28">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I40" s="16">
         <x:v>43948.28680555556</x:v>
@@ -6167,7 +6167,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H45" s="28">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I45" s="16">
         <x:v>43948.28680555556</x:v>
@@ -6232,7 +6232,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H49" s="29">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I49" s="16">
         <x:v>43948.28680555556</x:v>
@@ -6298,7 +6298,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H53" s="29">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I53" s="16">
         <x:v>43948.28680555556</x:v>
@@ -6363,7 +6363,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H57" s="29">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I57" s="16">
         <x:v>43948.28680555556</x:v>
@@ -6428,7 +6428,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H61" s="29">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I61" s="16">
         <x:v>43948.28680555556</x:v>
@@ -6493,7 +6493,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H65" s="29">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I65" s="16">
         <x:v>43948.28680555556</x:v>
@@ -6558,7 +6558,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H69" s="29">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I69" s="16">
         <x:v>43948.28680555556</x:v>
@@ -6623,7 +6623,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H73" s="29">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I73" s="16">
         <x:v>43948.28680555556</x:v>
@@ -6688,7 +6688,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H77" s="28">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I77" s="16">
         <x:v>43948.28680555556</x:v>
@@ -6757,7 +6757,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H82" s="28">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I82" s="16">
         <x:v>43948.28680555556</x:v>
@@ -6822,7 +6822,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H86" s="29">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I86" s="16">
         <x:v>43948.28680555556</x:v>
@@ -6887,7 +6887,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H90" s="29">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I90" s="16">
         <x:v>43948.28680555556</x:v>
@@ -6952,7 +6952,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H94" s="29">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I94" s="16">
         <x:v>43948.28680555556</x:v>
@@ -7017,7 +7017,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H98" s="29">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I98" s="16">
         <x:v>43948.28680555556</x:v>
@@ -7082,7 +7082,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H102" s="29">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I102" s="16">
         <x:v>43948.28680555556</x:v>
@@ -7147,7 +7147,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H106" s="29">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I106" s="16">
         <x:v>43948.28680555556</x:v>
@@ -7212,7 +7212,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H110" s="29">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I110" s="16">
         <x:v>43948.28680555556</x:v>
@@ -7277,7 +7277,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H114" s="28">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I114" s="16">
         <x:v>43948.28680555556</x:v>
@@ -7346,7 +7346,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H119" s="28">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I119" s="16">
         <x:v>43948.28680555556</x:v>
@@ -7410,7 +7410,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H123" s="29">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I123" s="16">
         <x:v>43948.28680555556</x:v>
@@ -7474,7 +7474,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H127" s="28">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I127" s="16">
         <x:v>43948.28680555556</x:v>
@@ -7538,7 +7538,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H131" s="28">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I131" s="16">
         <x:v>43948.28680555556</x:v>
@@ -7602,7 +7602,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H135" s="29">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I135" s="16">
         <x:v>43948.28680555556</x:v>
@@ -7666,7 +7666,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H139" s="29">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I139" s="16">
         <x:v>43948.28680555556</x:v>
@@ -7730,7 +7730,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H143" s="29">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I143" s="16">
         <x:v>43948.28680555556</x:v>
@@ -7794,7 +7794,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H147" s="29">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I147" s="16">
         <x:v>43948.28680555556</x:v>
@@ -7858,7 +7858,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H151" s="28">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I151" s="16">
         <x:v>43948.28680555556</x:v>
@@ -8600,7 +8600,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H7" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I7" s="4" t="s">
         <x:v>15</x:v>
@@ -8654,7 +8654,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H11" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I11" s="4" t="s">
         <x:v>15</x:v>
@@ -8708,7 +8708,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H15" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I15" s="4" t="s">
         <x:v>15</x:v>
@@ -8762,7 +8762,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H19" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I19" s="4" t="s">
         <x:v>15</x:v>
@@ -8892,7 +8892,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H7" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I7" s="4" t="s">
         <x:v>15</x:v>
@@ -8946,7 +8946,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H11" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I11" s="4" t="s">
         <x:v>15</x:v>
@@ -9000,7 +9000,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H15" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I15" s="4" t="s">
         <x:v>15</x:v>
@@ -9054,7 +9054,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H19" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I19" s="4" t="s">
         <x:v>15</x:v>
@@ -9187,7 +9187,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H7" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I7" s="4" t="s">
         <x:v>15</x:v>
@@ -9244,7 +9244,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H11" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I11" s="4" t="s">
         <x:v>15</x:v>
@@ -9298,7 +9298,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H15" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I15" s="4" t="s">
         <x:v>15</x:v>
@@ -9352,7 +9352,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H19" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I19" s="4" t="s">
         <x:v>15</x:v>
@@ -9485,7 +9485,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H7" s="16">
-        <x:v>44076.58888888889</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I7" s="4" t="s">
         <x:v>15</x:v>
@@ -9542,7 +9542,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H11" s="16">
-        <x:v>44076.58888888889</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I11" s="4" t="s">
         <x:v>15</x:v>
@@ -9596,7 +9596,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H15" s="16">
-        <x:v>44076.58888888889</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I15" s="4" t="s">
         <x:v>15</x:v>
@@ -9652,7 +9652,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H19" s="16">
-        <x:v>44076.58888888889</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I19" s="4" t="s">
         <x:v>15</x:v>
@@ -9785,7 +9785,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H7" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I7" s="4" t="s">
         <x:v>15</x:v>
@@ -9842,7 +9842,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H11" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I11" s="4" t="s">
         <x:v>15</x:v>
@@ -9896,7 +9896,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H15" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I15" s="4" t="s">
         <x:v>15</x:v>
@@ -9950,7 +9950,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H19" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I19" s="4" t="s">
         <x:v>15</x:v>
@@ -18275,7 +18275,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H7" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I7" s="4" t="s">
         <x:v>15</x:v>
@@ -18332,7 +18332,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H11" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I11" s="4" t="s">
         <x:v>15</x:v>
@@ -18386,7 +18386,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H15" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I15" s="4" t="s">
         <x:v>15</x:v>
@@ -18440,7 +18440,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H19" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I19" s="4" t="s">
         <x:v>15</x:v>
@@ -18575,7 +18575,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H7" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I7" s="4" t="s">
         <x:v>15</x:v>
@@ -18632,7 +18632,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H11" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I11" s="4" t="s">
         <x:v>15</x:v>
@@ -18686,7 +18686,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H15" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I15" s="4" t="s">
         <x:v>15</x:v>
@@ -18740,7 +18740,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="H19" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I19" s="4" t="s">
         <x:v>15</x:v>
@@ -18873,7 +18873,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H7" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I7" s="4" t="s">
         <x:v>15</x:v>
@@ -18932,7 +18932,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H11" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I11" s="4" t="s">
         <x:v>15</x:v>
@@ -18991,7 +18991,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H15" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I15" s="4" t="s">
         <x:v>15</x:v>
@@ -19049,7 +19049,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H19" s="16">
-        <x:v>44076.589583333334</x:v>
+        <x:v>44078.811111111114</x:v>
       </x:c>
       <x:c r="I19" s="4" t="s">
         <x:v>15</x:v>

--- a/StatisticsTests/ExcelTesting/ExcelData/Triangular.xlsx
+++ b/StatisticsTests/ExcelTesting/ExcelData/Triangular.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
   <x:si>
     <x:r>
       <x:rPr>
@@ -743,6 +743,9 @@
     <x:t>0.1414213562373095</x:t>
   </x:si>
   <x:si>
+    <x:t>0.14142135623731</x:t>
+  </x:si>
+  <x:si>
     <x:t xml:space="preserve">      Note:  Trial and error will be needed for red-highlighted conditions… for example replace "p &lt; 0.5" with "p &lt; 0.25", "p &lt; 0.75", etc. if the "actual" does not match the "expected"</x:t>
   </x:si>
   <x:si>
@@ -752,10 +755,16 @@
     <x:t>0.31622776601683794</x:t>
   </x:si>
   <x:si>
+    <x:t>0.316227766016838</x:t>
+  </x:si>
+  <x:si>
     <x:t>4. Test 25% Value: InverseCDF(0.25)</x:t>
   </x:si>
   <x:si>
     <x:t>0.7071067811865476</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.707106781186548</x:t>
   </x:si>
   <x:si>
     <x:t>5. Test 50% Value: InverseCDF(0.50)</x:t>
@@ -767,10 +776,16 @@
     <x:t>1.2928932188134525</x:t>
   </x:si>
   <x:si>
+    <x:t>1.29289321881345</x:t>
+  </x:si>
+  <x:si>
     <x:t>7. Test 95% Value: InverseCDF(0.95)</x:t>
   </x:si>
   <x:si>
     <x:t>1.683772233983162</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.68377223398316</x:t>
   </x:si>
   <x:si>
     <x:t>8. Test 99% Value: InverseCDF(0.99)</x:t>
@@ -779,10 +794,16 @@
     <x:t>1.8585786437626903</x:t>
   </x:si>
   <x:si>
+    <x:t>1.85857864376269</x:t>
+  </x:si>
+  <x:si>
     <x:t>9. Test 100% Value: InverseCDF(1)</x:t>
   </x:si>
   <x:si>
     <x:t>-0.8585786437626906</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-0.858578643762691</x:t>
   </x:si>
   <x:si>
     <x:t>-0.683772233983162</x:t>
@@ -791,7 +812,13 @@
     <x:t>-0.2928932188134524</x:t>
   </x:si>
   <x:si>
+    <x:t>-0.292893218813452</x:t>
+  </x:si>
+  <x:si>
     <x:t>0.2928932188134524</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.292893218813452</x:t>
   </x:si>
   <x:si>
     <x:t>0.683772233983162</x:t>
@@ -800,16 +827,31 @@
     <x:t>0.8585786437626904</x:t>
   </x:si>
   <x:si>
+    <x:t>0.85857864376269</x:t>
+  </x:si>
+  <x:si>
     <x:t>7.0710678118654755</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7.07106781186548</x:t>
   </x:si>
   <x:si>
     <x:t>15.811388300841896</x:t>
   </x:si>
   <x:si>
+    <x:t>15.8113883008419</x:t>
+  </x:si>
+  <x:si>
     <x:t>35.35533905932738</x:t>
   </x:si>
   <x:si>
+    <x:t>35.3553390593274</x:t>
+  </x:si>
+  <x:si>
     <x:t>64.64466094067262</x:t>
+  </x:si>
+  <x:si>
+    <x:t>64.6446609406726</x:t>
   </x:si>
   <x:si>
     <x:t>84.1886116991581</x:t>
@@ -818,22 +860,46 @@
     <x:t>92.92893218813452</x:t>
   </x:si>
   <x:si>
+    <x:t>92.9289321881345</x:t>
+  </x:si>
+  <x:si>
     <x:t>0.005000125006247913</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0.00500012500624791</x:t>
   </x:si>
   <x:si>
     <x:t>2.045929130025428</x:t>
   </x:si>
   <x:si>
+    <x:t>2.04592913002543</x:t>
+  </x:si>
+  <x:si>
     <x:t>12.965524072353944</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12.9655240723539</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28.9366479822405</x:t>
   </x:si>
   <x:si>
     <x:t>49.75062189439555</x:t>
   </x:si>
   <x:si>
+    <x:t>49.7506218943956</x:t>
+  </x:si>
+  <x:si>
     <x:t>77.52779494575576</x:t>
   </x:si>
   <x:si>
+    <x:t>77.5277949457558</x:t>
+  </x:si>
+  <x:si>
     <x:t>89.95012437887911</x:t>
+  </x:si>
+  <x:si>
+    <x:t>89.9501243788791</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -1702,7 +1768,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H7" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I7" s="4" t="s">
         <x:v>15</x:v>
@@ -1756,7 +1822,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H11" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I11" s="4" t="s">
         <x:v>15</x:v>
@@ -1810,7 +1876,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H15" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I15" s="4" t="s">
         <x:v>15</x:v>
@@ -1864,7 +1930,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H19" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I19" s="4" t="s">
         <x:v>15</x:v>
@@ -2009,7 +2075,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H8" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I8" s="4" t="s">
         <x:v>15</x:v>
@@ -2068,7 +2134,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H12" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I12" s="4" t="s">
         <x:v>15</x:v>
@@ -2128,7 +2194,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H16" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I16" s="4" t="s">
         <x:v>15</x:v>
@@ -2188,7 +2254,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H20" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I20" s="4" t="s">
         <x:v>15</x:v>
@@ -2248,7 +2314,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H24" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I24" s="4" t="s">
         <x:v>15</x:v>
@@ -2308,7 +2374,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H28" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I28" s="4" t="s">
         <x:v>15</x:v>
@@ -2368,7 +2434,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H32" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I32" s="4" t="s">
         <x:v>15</x:v>
@@ -2432,7 +2498,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H37" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I37" s="4" t="s">
         <x:v>15</x:v>
@@ -2492,7 +2558,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H41" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I41" s="4" t="s">
         <x:v>15</x:v>
@@ -2552,7 +2618,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H45" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I45" s="4" t="s">
         <x:v>15</x:v>
@@ -2612,7 +2678,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H49" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I49" s="4" t="s">
         <x:v>15</x:v>
@@ -2672,7 +2738,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H53" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I53" s="4" t="s">
         <x:v>15</x:v>
@@ -2732,7 +2798,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H57" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I57" s="4" t="s">
         <x:v>15</x:v>
@@ -2792,7 +2858,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H61" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I61" s="4" t="s">
         <x:v>15</x:v>
@@ -2856,7 +2922,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H66" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I66" s="4" t="s">
         <x:v>15</x:v>
@@ -2916,7 +2982,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H70" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I70" s="4" t="s">
         <x:v>15</x:v>
@@ -2976,7 +3042,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H74" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I74" s="4" t="s">
         <x:v>15</x:v>
@@ -3036,7 +3102,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H78" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I78" s="4" t="s">
         <x:v>15</x:v>
@@ -3096,7 +3162,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H82" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I82" s="4" t="s">
         <x:v>15</x:v>
@@ -3156,7 +3222,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H86" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I86" s="4" t="s">
         <x:v>15</x:v>
@@ -3216,7 +3282,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H90" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I90" s="4" t="s">
         <x:v>15</x:v>
@@ -3280,7 +3346,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H95" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I95" s="4" t="s">
         <x:v>15</x:v>
@@ -3339,7 +3405,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H99" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I99" s="4" t="s">
         <x:v>15</x:v>
@@ -3359,7 +3425,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E100" s="1" t="n">
-        <x:v>0.019801980198019802</x:v>
+        <x:v>0.0198019801980198</x:v>
       </x:c>
       <x:c r="F100" s="1" t="s">
         <x:v>87</x:v>
@@ -3398,7 +3464,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H103" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I103" s="4" t="s">
         <x:v>15</x:v>
@@ -3418,7 +3484,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E104" s="1" t="n">
-        <x:v>0.01485148514851485</x:v>
+        <x:v>0.0148514851485149</x:v>
       </x:c>
       <x:c r="F104" s="1" t="s">
         <x:v>88</x:v>
@@ -3464,7 +3530,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H107" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I107" s="4" t="s">
         <x:v>15</x:v>
@@ -3484,7 +3550,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="E108" s="1" t="n">
-        <x:v>0.009900990099009901</x:v>
+        <x:v>0.0099009900990099</x:v>
       </x:c>
       <x:c r="F108" s="1" t="s">
         <x:v>89</x:v>
@@ -3523,7 +3589,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H111" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I111" s="4" t="s">
         <x:v>15</x:v>
@@ -3543,7 +3609,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E112" s="1" t="n">
-        <x:v>0.0049504950495049506</x:v>
+        <x:v>0.00495049504950495</x:v>
       </x:c>
       <x:c r="F112" s="1" t="s">
         <x:v>90</x:v>
@@ -3582,7 +3648,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H115" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I115" s="4" t="s">
         <x:v>15</x:v>
@@ -3641,7 +3707,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H119" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I119" s="4" t="s">
         <x:v>15</x:v>
@@ -3783,7 +3849,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H8" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I8" s="4" t="s">
         <x:v>15</x:v>
@@ -3842,7 +3908,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H12" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I12" s="4" t="s">
         <x:v>15</x:v>
@@ -3902,7 +3968,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H16" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I16" s="4" t="s">
         <x:v>15</x:v>
@@ -3962,7 +4028,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H20" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I20" s="4" t="s">
         <x:v>15</x:v>
@@ -4022,7 +4088,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H24" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I24" s="4" t="s">
         <x:v>15</x:v>
@@ -4082,7 +4148,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H28" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I28" s="4" t="s">
         <x:v>15</x:v>
@@ -4142,7 +4208,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H32" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I32" s="4" t="s">
         <x:v>15</x:v>
@@ -4206,7 +4272,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H37" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I37" s="4" t="s">
         <x:v>15</x:v>
@@ -4265,7 +4331,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H41" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I41" s="4" t="s">
         <x:v>15</x:v>
@@ -4324,7 +4390,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H45" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I45" s="4" t="s">
         <x:v>15</x:v>
@@ -4383,7 +4449,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H49" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I49" s="4" t="s">
         <x:v>15</x:v>
@@ -4442,7 +4508,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H53" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I53" s="4" t="s">
         <x:v>15</x:v>
@@ -4501,7 +4567,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H57" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I57" s="4" t="s">
         <x:v>15</x:v>
@@ -4560,7 +4626,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H61" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I61" s="4" t="s">
         <x:v>15</x:v>
@@ -4623,7 +4689,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H66" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I66" s="4" t="s">
         <x:v>15</x:v>
@@ -4682,7 +4748,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H70" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I70" s="4" t="s">
         <x:v>15</x:v>
@@ -4741,7 +4807,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H74" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I74" s="4" t="s">
         <x:v>15</x:v>
@@ -4800,7 +4866,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H78" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I78" s="4" t="s">
         <x:v>15</x:v>
@@ -4859,7 +4925,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H82" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I82" s="4" t="s">
         <x:v>15</x:v>
@@ -4918,7 +4984,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H86" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I86" s="4" t="s">
         <x:v>15</x:v>
@@ -4977,7 +5043,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H90" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I90" s="4" t="s">
         <x:v>15</x:v>
@@ -5045,7 +5111,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H95" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I95" s="4" t="s">
         <x:v>15</x:v>
@@ -5065,7 +5131,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="E96" s="1" t="n">
-        <x:v>0.009900990099009901</x:v>
+        <x:v>0.0099009900990099</x:v>
       </x:c>
       <x:c r="F96" s="1" t="s">
         <x:v>89</x:v>
@@ -5104,7 +5170,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H99" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I99" s="4" t="s">
         <x:v>15</x:v>
@@ -5163,7 +5229,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H103" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I103" s="4" t="s">
         <x:v>15</x:v>
@@ -5222,7 +5288,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H107" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I107" s="4" t="s">
         <x:v>15</x:v>
@@ -5245,7 +5311,7 @@
         <x:v>0.5</x:v>
       </x:c>
       <x:c r="E108" s="1" t="n">
-        <x:v>0.01977722772277224</x:v>
+        <x:v>0.0197772277227722</x:v>
       </x:c>
       <x:c r="F108" s="1" t="s">
         <x:v>108</x:v>
@@ -5283,7 +5349,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H111" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I111" s="4" t="s">
         <x:v>15</x:v>
@@ -5303,7 +5369,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E112" s="1" t="n">
-        <x:v>0.5148514851485149</x:v>
+        <x:v>0.514851485148515</x:v>
       </x:c>
       <x:c r="F112" s="1" t="s">
         <x:v>109</x:v>
@@ -5341,7 +5407,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H115" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I115" s="4" t="s">
         <x:v>15</x:v>
@@ -5399,7 +5465,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H119" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I119" s="4" t="s">
         <x:v>15</x:v>
@@ -5543,10 +5609,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H8" s="28">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.56875</x:v>
       </x:c>
       <x:c r="I8" s="16">
-        <x:v>43948.28680555556</x:v>
+        <x:v>43948.2868055556</x:v>
       </x:c>
       <x:c r="J8" s="4" t="s">
         <x:v>15</x:v>
@@ -5620,10 +5686,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H12" s="29">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I12" s="16">
-        <x:v>43948.28680555556</x:v>
+        <x:v>43948.2868055556</x:v>
       </x:c>
       <x:c r="J12" s="4" t="s">
         <x:v>15</x:v>
@@ -5649,7 +5715,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="F13" s="1" t="s">
-        <x:v>121</x:v>
+        <x:v>122</x:v>
       </x:c>
       <x:c r="G13" s="2" t="s">
         <x:v>121</x:v>
@@ -5659,13 +5725,13 @@
         <x:f>IF(D13 = 0, "x &lt;= Min", IF(D13 &lt; 0.5, (B13 + SQRT(D13 * (C13 - B13) * (A13 - B13))), IF(D13 &lt; 1, (C13 - SQRT((1 - D13) * (C13 - B13) * (C13 - A13))), IF(D13 = 1, "x &gt;= Max", "?"))))</x:f>
       </x:c>
       <x:c r="L13" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="15" spans="1:16" s="0" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A15" s="10" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -5691,10 +5757,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H16" s="29">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.56875</x:v>
       </x:c>
       <x:c r="I16" s="16">
-        <x:v>43948.28958333333</x:v>
+        <x:v>43948.2895833333</x:v>
       </x:c>
       <x:c r="J16" s="4" t="s">
         <x:v>15</x:v>
@@ -5714,13 +5780,13 @@
         <x:v>0.05</x:v>
       </x:c>
       <x:c r="E17" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="F17" s="1" t="s">
-        <x:v>124</x:v>
+        <x:v>126</x:v>
       </x:c>
       <x:c r="G17" s="2" t="s">
-        <x:v>124</x:v>
+        <x:v>125</x:v>
       </x:c>
       <x:c r="I17" s="5" t="s"/>
       <x:c r="J17" s="1">
@@ -5747,7 +5813,7 @@
     </x:row>
     <x:row r="19" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A19" s="10" t="s">
-        <x:v>125</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -5773,10 +5839,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H20" s="29">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I20" s="16">
-        <x:v>43948.28680555556</x:v>
+        <x:v>43948.2868055556</x:v>
       </x:c>
       <x:c r="J20" s="4" t="s">
         <x:v>15</x:v>
@@ -5796,13 +5862,13 @@
         <x:v>0.25</x:v>
       </x:c>
       <x:c r="E21" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="F21" s="1" t="s">
-        <x:v>126</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="G21" s="2" t="s">
-        <x:v>126</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="I21" s="5" t="s"/>
       <x:c r="J21" s="1">
@@ -5812,7 +5878,7 @@
     <x:row r="22" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="23" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A23" s="10" t="s">
-        <x:v>127</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -5838,10 +5904,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H24" s="29">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I24" s="16">
-        <x:v>43948.28680555556</x:v>
+        <x:v>43948.2868055556</x:v>
       </x:c>
       <x:c r="J24" s="4" t="s">
         <x:v>15</x:v>
@@ -5877,7 +5943,7 @@
     <x:row r="26" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="27" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A27" s="10" t="s">
-        <x:v>128</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -5903,10 +5969,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H28" s="29">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I28" s="16">
-        <x:v>43948.28680555556</x:v>
+        <x:v>43948.2868055556</x:v>
       </x:c>
       <x:c r="J28" s="4" t="s">
         <x:v>15</x:v>
@@ -5926,13 +5992,13 @@
         <x:v>0.75</x:v>
       </x:c>
       <x:c r="E29" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="F29" s="1" t="s">
-        <x:v>129</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="G29" s="2" t="s">
-        <x:v>129</x:v>
+        <x:v>132</x:v>
       </x:c>
       <x:c r="I29" s="5" t="s"/>
       <x:c r="J29" s="1">
@@ -5942,7 +6008,7 @@
     <x:row r="30" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="31" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A31" s="10" t="s">
-        <x:v>130</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -5968,10 +6034,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H32" s="29">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I32" s="16">
-        <x:v>43948.28680555556</x:v>
+        <x:v>43948.2868055556</x:v>
       </x:c>
       <x:c r="J32" s="4" t="s">
         <x:v>15</x:v>
@@ -5991,13 +6057,13 @@
         <x:v>0.95</x:v>
       </x:c>
       <x:c r="E33" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="F33" s="1" t="s">
-        <x:v>131</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="G33" s="2" t="s">
-        <x:v>131</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="I33" s="5" t="s"/>
       <x:c r="J33" s="1">
@@ -6007,7 +6073,7 @@
     <x:row r="34" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="35" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A35" s="10" t="s">
-        <x:v>132</x:v>
+        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6033,10 +6099,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H36" s="29">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.56875</x:v>
       </x:c>
       <x:c r="I36" s="16">
-        <x:v>43948.28680555556</x:v>
+        <x:v>43948.2868055556</x:v>
       </x:c>
       <x:c r="J36" s="4" t="s">
         <x:v>15</x:v>
@@ -6056,13 +6122,13 @@
         <x:v>0.99</x:v>
       </x:c>
       <x:c r="E37" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="F37" s="1" t="s">
-        <x:v>133</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="G37" s="2" t="s">
-        <x:v>133</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="I37" s="5" t="s"/>
       <x:c r="J37" s="1">
@@ -6072,7 +6138,7 @@
     <x:row r="38" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="39" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A39" s="10" t="s">
-        <x:v>134</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="40" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6098,10 +6164,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H40" s="28">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I40" s="16">
-        <x:v>43948.28680555556</x:v>
+        <x:v>43948.2868055556</x:v>
       </x:c>
       <x:c r="J40" s="4" t="s">
         <x:v>15</x:v>
@@ -6167,10 +6233,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H45" s="28">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I45" s="16">
-        <x:v>43948.28680555556</x:v>
+        <x:v>43948.2868055556</x:v>
       </x:c>
       <x:c r="J45" s="4" t="s">
         <x:v>15</x:v>
@@ -6232,10 +6298,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H49" s="29">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I49" s="16">
-        <x:v>43948.28680555556</x:v>
+        <x:v>43948.2868055556</x:v>
       </x:c>
       <x:c r="J49" s="4" t="s">
         <x:v>15</x:v>
@@ -6255,13 +6321,13 @@
         <x:v>0.01</x:v>
       </x:c>
       <x:c r="E50" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="F50" s="1" t="s">
-        <x:v>135</x:v>
+        <x:v>142</x:v>
       </x:c>
       <x:c r="G50" s="2" t="s">
-        <x:v>135</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="I50" s="5" t="s"/>
       <x:c r="J50" s="1">
@@ -6272,7 +6338,7 @@
     <x:row r="51" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="52" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A52" s="10" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="53" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6298,10 +6364,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H53" s="29">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I53" s="16">
-        <x:v>43948.28680555556</x:v>
+        <x:v>43948.2868055556</x:v>
       </x:c>
       <x:c r="J53" s="4" t="s">
         <x:v>15</x:v>
@@ -6321,13 +6387,13 @@
         <x:v>0.05</x:v>
       </x:c>
       <x:c r="E54" s="1" t="s">
-        <x:v>136</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="F54" s="1" t="s">
-        <x:v>136</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="G54" s="2" t="s">
-        <x:v>136</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="I54" s="5" t="s"/>
       <x:c r="J54" s="1">
@@ -6337,7 +6403,7 @@
     <x:row r="55" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="56" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A56" s="10" t="s">
-        <x:v>125</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="57" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6363,10 +6429,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H57" s="29">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I57" s="16">
-        <x:v>43948.28680555556</x:v>
+        <x:v>43948.2868055556</x:v>
       </x:c>
       <x:c r="J57" s="4" t="s">
         <x:v>15</x:v>
@@ -6386,13 +6452,13 @@
         <x:v>0.25</x:v>
       </x:c>
       <x:c r="E58" s="1" t="s">
-        <x:v>137</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="F58" s="1" t="s">
-        <x:v>137</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="G58" s="2" t="s">
-        <x:v>137</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="I58" s="5" t="s"/>
       <x:c r="J58" s="1">
@@ -6402,7 +6468,7 @@
     <x:row r="59" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="60" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A60" s="10" t="s">
-        <x:v>127</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="61" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6428,10 +6494,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H61" s="29">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I61" s="16">
-        <x:v>43948.28680555556</x:v>
+        <x:v>43948.2868055556</x:v>
       </x:c>
       <x:c r="J61" s="4" t="s">
         <x:v>15</x:v>
@@ -6467,7 +6533,7 @@
     <x:row r="63" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="64" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A64" s="10" t="s">
-        <x:v>128</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
     <x:row r="65" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6493,10 +6559,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H65" s="29">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I65" s="16">
-        <x:v>43948.28680555556</x:v>
+        <x:v>43948.2868055556</x:v>
       </x:c>
       <x:c r="J65" s="4" t="s">
         <x:v>15</x:v>
@@ -6516,13 +6582,13 @@
         <x:v>0.75</x:v>
       </x:c>
       <x:c r="E66" s="1" t="s">
-        <x:v>138</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="F66" s="1" t="s">
-        <x:v>138</x:v>
+        <x:v>147</x:v>
       </x:c>
       <x:c r="G66" s="2" t="s">
-        <x:v>138</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="I66" s="5" t="s"/>
       <x:c r="J66" s="1">
@@ -6532,7 +6598,7 @@
     <x:row r="67" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="68" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A68" s="10" t="s">
-        <x:v>130</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="69" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6558,10 +6624,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H69" s="29">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I69" s="16">
-        <x:v>43948.28680555556</x:v>
+        <x:v>43948.2868055556</x:v>
       </x:c>
       <x:c r="J69" s="4" t="s">
         <x:v>15</x:v>
@@ -6581,13 +6647,13 @@
         <x:v>0.95</x:v>
       </x:c>
       <x:c r="E70" s="1" t="s">
-        <x:v>139</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="F70" s="1" t="s">
-        <x:v>139</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="G70" s="2" t="s">
-        <x:v>139</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="I70" s="4" t="s"/>
       <x:c r="J70" s="1">
@@ -6597,7 +6663,7 @@
     <x:row r="71" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="72" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A72" s="10" t="s">
-        <x:v>132</x:v>
+        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="73" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6623,10 +6689,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H73" s="29">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I73" s="16">
-        <x:v>43948.28680555556</x:v>
+        <x:v>43948.2868055556</x:v>
       </x:c>
       <x:c r="J73" s="4" t="s">
         <x:v>15</x:v>
@@ -6646,13 +6712,13 @@
         <x:v>0.99</x:v>
       </x:c>
       <x:c r="E74" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="F74" s="1" t="s">
-        <x:v>140</x:v>
+        <x:v>150</x:v>
       </x:c>
       <x:c r="G74" s="2" t="s">
-        <x:v>140</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="I74" s="5" t="s"/>
       <x:c r="J74" s="1">
@@ -6662,7 +6728,7 @@
     <x:row r="75" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="76" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A76" s="10" t="s">
-        <x:v>134</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6688,10 +6754,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H77" s="28">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I77" s="16">
-        <x:v>43948.28680555556</x:v>
+        <x:v>43948.2868055556</x:v>
       </x:c>
       <x:c r="J77" s="4" t="s">
         <x:v>15</x:v>
@@ -6757,10 +6823,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H82" s="28">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.56875</x:v>
       </x:c>
       <x:c r="I82" s="16">
-        <x:v>43948.28680555556</x:v>
+        <x:v>43948.2868055556</x:v>
       </x:c>
       <x:c r="J82" s="1" t="s">
         <x:v>15</x:v>
@@ -6822,10 +6888,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H86" s="29">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I86" s="16">
-        <x:v>43948.28680555556</x:v>
+        <x:v>43948.2868055556</x:v>
       </x:c>
       <x:c r="J86" s="1" t="s">
         <x:v>15</x:v>
@@ -6845,13 +6911,13 @@
         <x:v>0.01</x:v>
       </x:c>
       <x:c r="E87" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="F87" s="1" t="s">
-        <x:v>141</x:v>
+        <x:v>152</x:v>
       </x:c>
       <x:c r="G87" s="2" t="s">
-        <x:v>141</x:v>
+        <x:v>151</x:v>
       </x:c>
       <x:c r="I87" s="5" t="s"/>
       <x:c r="J87" s="1">
@@ -6861,7 +6927,7 @@
     <x:row r="88" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="89" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A89" s="10" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="90" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6887,10 +6953,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H90" s="29">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I90" s="16">
-        <x:v>43948.28680555556</x:v>
+        <x:v>43948.2868055556</x:v>
       </x:c>
       <x:c r="J90" s="1" t="s">
         <x:v>15</x:v>
@@ -6910,13 +6976,13 @@
         <x:v>0.05</x:v>
       </x:c>
       <x:c r="E91" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="F91" s="1" t="s">
-        <x:v>142</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="G91" s="2" t="s">
-        <x:v>142</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="I91" s="5" t="s"/>
       <x:c r="J91" s="1">
@@ -6926,7 +6992,7 @@
     <x:row r="92" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="93" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A93" s="10" t="s">
-        <x:v>125</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -6952,10 +7018,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H94" s="29">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I94" s="16">
-        <x:v>43948.28680555556</x:v>
+        <x:v>43948.2868055556</x:v>
       </x:c>
       <x:c r="J94" s="1" t="s">
         <x:v>15</x:v>
@@ -6975,13 +7041,13 @@
         <x:v>0.25</x:v>
       </x:c>
       <x:c r="E95" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="F95" s="1" t="s">
-        <x:v>143</x:v>
+        <x:v>156</x:v>
       </x:c>
       <x:c r="G95" s="2" t="s">
-        <x:v>143</x:v>
+        <x:v>155</x:v>
       </x:c>
       <x:c r="I95" s="5" t="s"/>
       <x:c r="J95" s="1">
@@ -6991,7 +7057,7 @@
     <x:row r="96" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="97" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A97" s="10" t="s">
-        <x:v>127</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="98" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -7017,10 +7083,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H98" s="29">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I98" s="16">
-        <x:v>43948.28680555556</x:v>
+        <x:v>43948.2868055556</x:v>
       </x:c>
       <x:c r="J98" s="1" t="s">
         <x:v>15</x:v>
@@ -7056,7 +7122,7 @@
     <x:row r="100" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="101" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A101" s="10" t="s">
-        <x:v>128</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
     <x:row r="102" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -7082,10 +7148,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H102" s="29">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I102" s="16">
-        <x:v>43948.28680555556</x:v>
+        <x:v>43948.2868055556</x:v>
       </x:c>
       <x:c r="J102" s="1" t="s">
         <x:v>15</x:v>
@@ -7105,13 +7171,13 @@
         <x:v>0.75</x:v>
       </x:c>
       <x:c r="E103" s="1" t="s">
-        <x:v>144</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="F103" s="1" t="s">
-        <x:v>144</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="G103" s="2" t="s">
-        <x:v>144</x:v>
+        <x:v>157</x:v>
       </x:c>
       <x:c r="I103" s="5" t="s"/>
       <x:c r="J103" s="1">
@@ -7121,7 +7187,7 @@
     <x:row r="104" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="105" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A105" s="10" t="s">
-        <x:v>130</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="106" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -7147,10 +7213,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H106" s="29">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I106" s="16">
-        <x:v>43948.28680555556</x:v>
+        <x:v>43948.2868055556</x:v>
       </x:c>
       <x:c r="J106" s="1" t="s">
         <x:v>15</x:v>
@@ -7170,13 +7236,13 @@
         <x:v>0.95</x:v>
       </x:c>
       <x:c r="E107" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="F107" s="1" t="s">
-        <x:v>145</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="G107" s="2" t="s">
-        <x:v>145</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="I107" s="5" t="s"/>
       <x:c r="J107" s="1">
@@ -7186,7 +7252,7 @@
     <x:row r="108" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="109" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A109" s="10" t="s">
-        <x:v>132</x:v>
+        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="110" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -7212,10 +7278,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H110" s="29">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.56875</x:v>
       </x:c>
       <x:c r="I110" s="16">
-        <x:v>43948.28680555556</x:v>
+        <x:v>43948.2868055556</x:v>
       </x:c>
       <x:c r="J110" s="1" t="s">
         <x:v>15</x:v>
@@ -7235,13 +7301,13 @@
         <x:v>0.99</x:v>
       </x:c>
       <x:c r="E111" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="F111" s="1" t="s">
-        <x:v>146</x:v>
+        <x:v>161</x:v>
       </x:c>
       <x:c r="G111" s="2" t="s">
-        <x:v>146</x:v>
+        <x:v>160</x:v>
       </x:c>
       <x:c r="I111" s="5" t="s"/>
       <x:c r="J111" s="1">
@@ -7251,7 +7317,7 @@
     <x:row r="112" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="113" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A113" s="10" t="s">
-        <x:v>134</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="114" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -7277,10 +7343,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H114" s="28">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I114" s="16">
-        <x:v>43948.28680555556</x:v>
+        <x:v>43948.2868055556</x:v>
       </x:c>
       <x:c r="J114" s="1" t="s">
         <x:v>15</x:v>
@@ -7346,10 +7412,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H119" s="28">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I119" s="16">
-        <x:v>43948.28680555556</x:v>
+        <x:v>43948.2868055556</x:v>
       </x:c>
       <x:c r="J119" s="4" t="s">
         <x:v>15</x:v>
@@ -7410,10 +7476,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H123" s="29">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I123" s="16">
-        <x:v>43948.28680555556</x:v>
+        <x:v>43948.2868055556</x:v>
       </x:c>
       <x:c r="J123" s="4" t="s">
         <x:v>15</x:v>
@@ -7433,13 +7499,13 @@
         <x:v>0.01</x:v>
       </x:c>
       <x:c r="E124" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="F124" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>163</x:v>
       </x:c>
       <x:c r="G124" s="1" t="s">
-        <x:v>147</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="J124" s="1">
         <x:f>IF(D124 = 0, "x &lt;= Min", IF(D124 &lt; 0.5, (B124 + SQRT(D124 * (C124 - B124) * (A124 - B124))), IF(D124 &lt; 1, (C124 - SQRT((1 - D124) * (C124 - B124) * (C124 - A124))), IF(D124 = 1, "x &gt;= Max", "?"))))</x:f>
@@ -7448,7 +7514,7 @@
     <x:row r="125" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="126" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A126" s="10" t="s">
-        <x:v>123</x:v>
+        <x:v>124</x:v>
       </x:c>
     </x:row>
     <x:row r="127" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -7474,10 +7540,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H127" s="28">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.56875</x:v>
       </x:c>
       <x:c r="I127" s="16">
-        <x:v>43948.28680555556</x:v>
+        <x:v>43948.2868055556</x:v>
       </x:c>
       <x:c r="J127" s="4" t="s">
         <x:v>15</x:v>
@@ -7497,13 +7563,13 @@
         <x:v>0.05</x:v>
       </x:c>
       <x:c r="E128" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="F128" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="G128" s="1" t="s">
-        <x:v>148</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="J128" s="1">
         <x:f>IF(D128 = 0, "x &lt;= Min", IF(D128 &lt; 0.5, (B128 + SQRT(D128 * (C128 - B128) * (A128 - B128))), IF(D128 &lt; 1, (C128 - SQRT((1 - D128) * (C128 - B128) * (C128 - A128))), IF(D128 = 1, "x &gt;= Max", "?"))))</x:f>
@@ -7512,7 +7578,7 @@
     <x:row r="129" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="130" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A130" s="10" t="s">
-        <x:v>125</x:v>
+        <x:v>127</x:v>
       </x:c>
     </x:row>
     <x:row r="131" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -7538,10 +7604,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H131" s="28">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I131" s="16">
-        <x:v>43948.28680555556</x:v>
+        <x:v>43948.2868055556</x:v>
       </x:c>
       <x:c r="J131" s="4" t="s">
         <x:v>15</x:v>
@@ -7561,13 +7627,13 @@
         <x:v>0.25</x:v>
       </x:c>
       <x:c r="E132" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="F132" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>167</x:v>
       </x:c>
       <x:c r="G132" s="1" t="s">
-        <x:v>149</x:v>
+        <x:v>166</x:v>
       </x:c>
       <x:c r="J132" s="1">
         <x:f>IF(D132 = 0, "x &lt;= Min", IF(D132 &lt; 0.5, (B132 + SQRT(D132 * (C132 - B132) * (A132 - B132))), IF(D132 &lt; 1, (C132 - SQRT((1 - D132) * (C132 - B132) * (C132 - A132))), IF(D132 = 1, "x &gt;= Max", "?"))))</x:f>
@@ -7576,7 +7642,7 @@
     <x:row r="133" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="134" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A134" s="10" t="s">
-        <x:v>127</x:v>
+        <x:v>130</x:v>
       </x:c>
     </x:row>
     <x:row r="135" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -7602,10 +7668,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H135" s="29">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I135" s="16">
-        <x:v>43948.28680555556</x:v>
+        <x:v>43948.2868055556</x:v>
       </x:c>
       <x:c r="J135" s="4" t="s">
         <x:v>15</x:v>
@@ -7628,7 +7694,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="F136" s="1" t="s">
-        <x:v>40</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="G136" s="1" t="s">
         <x:v>40</x:v>
@@ -7640,7 +7706,7 @@
     <x:row r="137" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="138" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A138" s="10" t="s">
-        <x:v>128</x:v>
+        <x:v>131</x:v>
       </x:c>
     </x:row>
     <x:row r="139" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -7666,10 +7732,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H139" s="29">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I139" s="16">
-        <x:v>43948.28680555556</x:v>
+        <x:v>43948.2868055556</x:v>
       </x:c>
       <x:c r="J139" s="4" t="s">
         <x:v>15</x:v>
@@ -7689,13 +7755,13 @@
         <x:v>0.75</x:v>
       </x:c>
       <x:c r="E140" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="F140" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>170</x:v>
       </x:c>
       <x:c r="G140" s="1" t="s">
-        <x:v>150</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="J140" s="1">
         <x:f>IF(D140 = 0, "x &lt;= Min", IF(D140 &lt; 0.5, (B140 + SQRT(D140 * (C140 - B140) * (A140 - B140))), IF(D140 &lt; 1, (C140 - SQRT((1 - D140) * (C140 - B140) * (C140 - A140))), IF(D140 = 1, "x &gt;= Max", "?"))))</x:f>
@@ -7704,7 +7770,7 @@
     <x:row r="141" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="142" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A142" s="10" t="s">
-        <x:v>130</x:v>
+        <x:v>134</x:v>
       </x:c>
     </x:row>
     <x:row r="143" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -7730,10 +7796,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H143" s="29">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.56875</x:v>
       </x:c>
       <x:c r="I143" s="16">
-        <x:v>43948.28680555556</x:v>
+        <x:v>43948.2868055556</x:v>
       </x:c>
       <x:c r="J143" s="4" t="s">
         <x:v>15</x:v>
@@ -7753,13 +7819,13 @@
         <x:v>0.95</x:v>
       </x:c>
       <x:c r="E144" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="F144" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>172</x:v>
       </x:c>
       <x:c r="G144" s="1" t="s">
-        <x:v>151</x:v>
+        <x:v>171</x:v>
       </x:c>
       <x:c r="J144" s="1">
         <x:f>IF(D144 = 0, "x &lt;= Min", IF(D144 &lt; 0.5, (B144 + SQRT(D144 * (C144 - B144) * (A144 - B144))), IF(D144 &lt; 1, (C144 - SQRT((1 - D144) * (C144 - B144) * (C144 - A144))), IF(D144 = 1, "x &gt;= Max", "?"))))</x:f>
@@ -7768,7 +7834,7 @@
     <x:row r="145" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="146" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A146" s="10" t="s">
-        <x:v>132</x:v>
+        <x:v>137</x:v>
       </x:c>
     </x:row>
     <x:row r="147" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -7794,10 +7860,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H147" s="29">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I147" s="16">
-        <x:v>43948.28680555556</x:v>
+        <x:v>43948.2868055556</x:v>
       </x:c>
       <x:c r="J147" s="4" t="s">
         <x:v>15</x:v>
@@ -7817,13 +7883,13 @@
         <x:v>0.99</x:v>
       </x:c>
       <x:c r="E148" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="F148" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="G148" s="1" t="s">
-        <x:v>152</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="J148" s="1">
         <x:f>IF(D148 = 0, "x &lt;= Min", IF(D148 &lt; 0.5, (B148 + SQRT(D148 * (C148 - B148) * (A148 - B148))), IF(D148 &lt; 1, (C148 - SQRT((1 - D148) * (C148 - B148) * (C148 - A148))), IF(D148 = 1, "x &gt;= Max", "?"))))</x:f>
@@ -7832,7 +7898,7 @@
     <x:row r="149" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25"/>
     <x:row r="150" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
       <x:c r="A150" s="10" t="s">
-        <x:v>134</x:v>
+        <x:v>140</x:v>
       </x:c>
     </x:row>
     <x:row r="151" spans="1:16" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -7858,10 +7924,10 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H151" s="28">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I151" s="16">
-        <x:v>43948.28680555556</x:v>
+        <x:v>43948.2868055556</x:v>
       </x:c>
       <x:c r="J151" s="4" t="s">
         <x:v>15</x:v>
@@ -7934,7 +8000,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <x:c r="A1" s="2" t="s">
-        <x:v>153</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
         <x:v>1</x:v>
@@ -7945,7 +8011,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>154</x:v>
+        <x:v>176</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -7972,7 +8038,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="J6" s="13" t="s">
-        <x:v>155</x:v>
+        <x:v>177</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -7989,19 +8055,19 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E7" s="4" t="s">
-        <x:v>156</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="F7" s="4" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="G7" s="4" t="s">
-        <x:v>157</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="H7" s="4" t="s">
-        <x:v>158</x:v>
+        <x:v>180</x:v>
       </x:c>
       <x:c r="J7" s="10" t="s">
-        <x:v>159</x:v>
+        <x:v>181</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -8047,16 +8113,16 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E11" s="4" t="s">
-        <x:v>156</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="F11" s="4" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="G11" s="4" t="s">
-        <x:v>157</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="H11" s="4" t="s">
-        <x:v>158</x:v>
+        <x:v>180</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -8101,16 +8167,16 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E15" s="4" t="s">
-        <x:v>156</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="F15" s="4" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="G15" s="4" t="s">
-        <x:v>157</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="H15" s="4" t="s">
-        <x:v>158</x:v>
+        <x:v>180</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -8156,16 +8222,16 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E19" s="4" t="s">
-        <x:v>156</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="F19" s="4" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="G19" s="4" t="s">
-        <x:v>157</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="H19" s="4" t="s">
-        <x:v>158</x:v>
+        <x:v>180</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -8241,7 +8307,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <x:c r="A1" s="2" t="s">
-        <x:v>160</x:v>
+        <x:v>182</x:v>
       </x:c>
       <x:c r="B1" s="2" t="s">
         <x:v>1</x:v>
@@ -8252,7 +8318,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B2" s="2" t="s">
-        <x:v>161</x:v>
+        <x:v>183</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -8290,19 +8356,19 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D7" s="4" t="s">
-        <x:v>162</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="E7" s="4" t="s">
-        <x:v>156</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="F7" s="4" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="G7" s="4" t="s">
-        <x:v>157</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="H7" s="4" t="s">
-        <x:v>158</x:v>
+        <x:v>180</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -8316,7 +8382,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D8" s="1" t="s">
-        <x:v>163</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="E8" s="1" t="str">
         <x:f>D8</x:f>
@@ -8337,7 +8403,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="D9" s="1" t="s">
-        <x:v>164</x:v>
+        <x:v>186</x:v>
       </x:c>
       <x:c r="E9" s="1" t="str">
         <x:f>D8</x:f>
@@ -8366,19 +8432,19 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="D12" s="4" t="s">
-        <x:v>162</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="E12" s="4" t="s">
-        <x:v>156</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="F12" s="4" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="G12" s="4" t="s">
-        <x:v>157</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="H12" s="4" t="s">
-        <x:v>158</x:v>
+        <x:v>180</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -8392,7 +8458,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D13" s="1" t="s">
-        <x:v>163</x:v>
+        <x:v>185</x:v>
       </x:c>
       <x:c r="E13" s="1" t="str">
         <x:f>D13</x:f>
@@ -8413,7 +8479,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="D14" s="1" t="s">
-        <x:v>165</x:v>
+        <x:v>187</x:v>
       </x:c>
       <x:c r="E14" s="1" t="str">
         <x:f>D13</x:f>
@@ -8476,12 +8542,12 @@
         <x:v>43859</x:v>
       </x:c>
       <x:c r="C2" s="2" t="s">
-        <x:v>166</x:v>
+        <x:v>188</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="B4" s="13" t="s">
-        <x:v>167</x:v>
+        <x:v>189</x:v>
       </x:c>
       <x:c r="C4" s="15" t="s"/>
       <x:c r="D4" s="15" t="s"/>
@@ -8490,7 +8556,7 @@
     </x:row>
     <x:row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="B5" s="2" t="s">
-        <x:v>168</x:v>
+        <x:v>190</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:8" s="0" customFormat="1" x14ac:dyDescent="0.25">
@@ -8505,7 +8571,7 @@
     </x:row>
     <x:row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <x:c r="B61" s="10" t="s">
-        <x:v>169</x:v>
+        <x:v>191</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
@@ -8600,7 +8666,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H7" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I7" s="4" t="s">
         <x:v>15</x:v>
@@ -8654,7 +8720,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H11" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I11" s="4" t="s">
         <x:v>15</x:v>
@@ -8708,7 +8774,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H15" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I15" s="4" t="s">
         <x:v>15</x:v>
@@ -8762,7 +8828,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H19" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I19" s="4" t="s">
         <x:v>15</x:v>
@@ -8892,7 +8958,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H7" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.56875</x:v>
       </x:c>
       <x:c r="I7" s="4" t="s">
         <x:v>15</x:v>
@@ -8946,7 +9012,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H11" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.56875</x:v>
       </x:c>
       <x:c r="I11" s="4" t="s">
         <x:v>15</x:v>
@@ -9000,7 +9066,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H15" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.56875</x:v>
       </x:c>
       <x:c r="I15" s="4" t="s">
         <x:v>15</x:v>
@@ -9054,7 +9120,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H19" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.56875</x:v>
       </x:c>
       <x:c r="I19" s="4" t="s">
         <x:v>15</x:v>
@@ -9187,7 +9253,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H7" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I7" s="4" t="s">
         <x:v>15</x:v>
@@ -9244,7 +9310,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H11" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I11" s="4" t="s">
         <x:v>15</x:v>
@@ -9298,7 +9364,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H15" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I15" s="4" t="s">
         <x:v>15</x:v>
@@ -9352,7 +9418,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H19" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I19" s="4" t="s">
         <x:v>15</x:v>
@@ -9485,7 +9551,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H7" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I7" s="4" t="s">
         <x:v>15</x:v>
@@ -9542,7 +9608,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H11" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I11" s="4" t="s">
         <x:v>15</x:v>
@@ -9596,7 +9662,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H15" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I15" s="4" t="s">
         <x:v>15</x:v>
@@ -9652,7 +9718,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H19" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I19" s="4" t="s">
         <x:v>15</x:v>
@@ -9670,7 +9736,7 @@
       </x:c>
       <x:c r="D20" s="0" t="s"/>
       <x:c r="E20" s="1" t="n">
-        <x:v>28.93664798224053</x:v>
+        <x:v>28.9366479822405</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s">
         <x:v>40</x:v>
@@ -9785,7 +9851,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H7" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I7" s="4" t="s">
         <x:v>15</x:v>
@@ -9805,7 +9871,7 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="E8" s="1" t="n">
-        <x:v>0.16666666666666666</x:v>
+        <x:v>0.166666666666667</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s">
         <x:v>45</x:v>
@@ -9842,7 +9908,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H11" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I11" s="4" t="s">
         <x:v>15</x:v>
@@ -9859,7 +9925,7 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="E12" s="1" t="n">
-        <x:v>0.16666666666666666</x:v>
+        <x:v>0.166666666666667</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s">
         <x:v>45</x:v>
@@ -9896,7 +9962,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H15" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I15" s="4" t="s">
         <x:v>15</x:v>
@@ -9913,7 +9979,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>416.6666666666667</x:v>
+        <x:v>416.666666666667</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s">
         <x:v>46</x:v>
@@ -9950,7 +10016,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H19" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I19" s="4" t="s">
         <x:v>15</x:v>
@@ -9968,7 +10034,7 @@
       </x:c>
       <x:c r="D20" s="0" t="s"/>
       <x:c r="E20" s="1" t="n">
-        <x:v>561.1666666666666</x:v>
+        <x:v>561.166666666667</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s">
         <x:v>47</x:v>
@@ -18275,7 +18341,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H7" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I7" s="4" t="s">
         <x:v>15</x:v>
@@ -18332,7 +18398,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H11" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I11" s="4" t="s">
         <x:v>15</x:v>
@@ -18386,7 +18452,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H15" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I15" s="4" t="s">
         <x:v>15</x:v>
@@ -18403,7 +18469,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E16" s="1" t="n">
-        <x:v>20.412414523193153</x:v>
+        <x:v>20.4124145231932</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s">
         <x:v>53</x:v>
@@ -18440,7 +18506,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H19" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I19" s="4" t="s">
         <x:v>15</x:v>
@@ -18458,7 +18524,7 @@
       </x:c>
       <x:c r="D20" s="0" t="s"/>
       <x:c r="E20" s="8" t="n">
-        <x:v>23.68895663946951</x:v>
+        <x:v>23.6889566394695</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s">
         <x:v>54</x:v>
@@ -18575,7 +18641,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H7" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I7" s="4" t="s">
         <x:v>15</x:v>
@@ -18632,7 +18698,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H11" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I11" s="4" t="s">
         <x:v>15</x:v>
@@ -18686,7 +18752,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H15" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I15" s="4" t="s">
         <x:v>15</x:v>
@@ -18740,7 +18806,7 @@
         <x:v>59</x:v>
       </x:c>
       <x:c r="H19" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44078.8111111111</x:v>
       </x:c>
       <x:c r="I19" s="4" t="s">
         <x:v>15</x:v>
@@ -18758,7 +18824,7 @@
       </x:c>
       <x:c r="D20" s="0" t="s"/>
       <x:c r="E20" s="1" t="n">
-        <x:v>0.5654964209652156</x:v>
+        <x:v>0.565496420965216</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s">
         <x:v>60</x:v>
@@ -18873,7 +18939,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H7" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I7" s="4" t="s">
         <x:v>15</x:v>
@@ -18932,7 +18998,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H11" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I11" s="4" t="s">
         <x:v>15</x:v>
@@ -18991,7 +19057,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H15" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I15" s="4" t="s">
         <x:v>15</x:v>
@@ -19049,7 +19115,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="H19" s="16">
-        <x:v>44078.811111111114</x:v>
+        <x:v>44431.5694444444</x:v>
       </x:c>
       <x:c r="I19" s="4" t="s">
         <x:v>15</x:v>
